--- a/questionnaire (1).xlsx
+++ b/questionnaire (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_BEFA78A34D91F18F039F52B477A31AE116087BA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3361214F-F574-4811-86F8-9FAE1D227D0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1EE0DC-F5A8-413F-8B74-909FBA86B41E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -110,17 +99,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１日の栄養バランスを考えた食事をとっている。</t>
-  </si>
-  <si>
     <t>長期休暇中に昼夜逆転をしてしまう。</t>
+  </si>
+  <si>
+    <t>True日の栄養バランスを考えた食事をとっている。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,18 +427,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -474,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -484,11 +473,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -498,11 +487,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -512,11 +501,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -526,11 +515,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -540,11 +529,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -555,7 +544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -566,32 +555,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -599,6 +587,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -809,19 +806,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
+    <ds:schemaRef ds:uri="e6f443d6-9b28-4441-a79c-6d0eebf0af5e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/questionnaire (1).xlsx
+++ b/questionnaire (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1EE0DC-F5A8-413F-8B74-909FBA86B41E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4F096D-4CE4-4FAF-A7E9-D5150D5AF0C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,8 @@
     <t>長期休暇中に昼夜逆転をしてしまう。</t>
   </si>
   <si>
-    <t>True日の栄養バランスを考えた食事をとっている。</t>
+    <t>1日の栄養バランスを考えた食事をとっている。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -430,7 +431,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -473,7 +474,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
@@ -487,7 +488,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
@@ -501,7 +502,7 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
@@ -515,7 +516,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="b">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
@@ -529,7 +530,7 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
@@ -576,7 +577,7 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="b">
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
